--- a/BANCOCNPJ.xlsx
+++ b/BANCOCNPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1595"/>
+  <dimension ref="A1:B1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16326,10 +16326,8 @@
       </c>
     </row>
     <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>55708593000137</t>
-        </is>
+      <c r="A1590" t="n">
+        <v>55708593000137</v>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
@@ -16338,10 +16336,8 @@
       </c>
     </row>
     <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>52992413000101</t>
-        </is>
+      <c r="A1591" t="n">
+        <v>52992413000101</v>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
@@ -16350,10 +16346,8 @@
       </c>
     </row>
     <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>41956346000145</t>
-        </is>
+      <c r="A1592" t="n">
+        <v>41956346000145</v>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
@@ -16362,10 +16356,8 @@
       </c>
     </row>
     <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>07784024000128</t>
-        </is>
+      <c r="A1593" t="n">
+        <v>7784024000128</v>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
@@ -16374,10 +16366,8 @@
       </c>
     </row>
     <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>21600669000194</t>
-        </is>
+      <c r="A1594" t="n">
+        <v>21600669000194</v>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
@@ -16386,14 +16376,388 @@
       </c>
     </row>
     <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>16870311000141</t>
-        </is>
+      <c r="A1595" t="n">
+        <v>16870311000141</v>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
           <t>PARK CAR ONE ESTACIONAMENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>43283811014452</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>3497158000107</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMBRATOP GEO-TECNOLOGIAS LTDA                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>36963348000121</v>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NICK PRESENTES LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>50313137000174</v>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMPA RIO COMERCIO VAREJISTA LTDA                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>45977103000144</v>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OSIAS NUNES FILHO                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>47781820000121</v>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PTA LOCACOES DE IMPRESSORAS E MULTI               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>52810462000178</v>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">METALURGICA LEIROM LTDA                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>52458707000140</v>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESTAURANTE FAZ ITATIBA LTDA                                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>27314403000161</v>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCELO DE ALMEIDA CORREA                </t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>42896843000168</v>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KRAMAC COMERCIAL EIRELI                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>27705651000133</v>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAICOMMERCE LTDA                                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>7851862003001</v>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGIA COMERCIO DE INFORMATICA LTDA                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>8572089000172</v>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANTONIOLLI &amp; ANTONIOLLI PECAS LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>12629642000133</v>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PALASHOPCOM COMERCIO ELETRONICO LT                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>82193244000283</v>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIPROTEC DISTR DE PROD TECN P/ CONS                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>11145654000120</v>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCW FOTOGRAVA AO LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>41285414000191</v>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GAMMA SHOPE COMERCIO VAREJISTA LTDA                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>55984862000198</v>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEEPP TUDO LTDA                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>40899913000106</v>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFATA FLORICULTURA NOVA ALIAN A LTD               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>2634420000155</v>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIULLIA S FLORES SOROCABANA LTDA                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>47674429001019</v>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANDRA SA ELECTRIC SOLUTIONS                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>53993214000172</v>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EDJERSON LUIS DA SILVA                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>28163630000104</v>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MHG DO AMARAL REPRESENTACOES COM               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>47508411234300</v>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMPANHIA BRASILEIRA DE DISTRIBUICA               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>1937635002983</v>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SONDA SUPERMERCADOS EXPE IMPSA                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>52153625000197</v>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUNDO ESHOP COMERCIO DE PRODUTOS ME               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>10969809000180</v>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLUMBIA SUPRI COMERCIO LTDA                                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>4612952000540</v>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIA AROMA INDUSTRIA DE AROMATIZADOR                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>22167598000140</v>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FA MAGAZINE ONLINE LTDA                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>34086562000111</v>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MALULO COMERCIO DE ALIMENTOS LTDA                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>65842726000117</v>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J F ROQUE DOCES CIA LTDA                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>44092021000150</v>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A LOJA PRODUTOS DESCARTAVEIS LTDA                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>30128066000475</v>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FSS DISTRIBUIDORA LTDA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>60397361000145</v>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIA TEXTIL NIAZI CHOHFI 702                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>22925418000142</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>HM PROJECT ENGINEERING AND COMMERCE LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>46317466000205</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>RKG PARK ADMINISTRACAO DE ESTACIONAMENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>55788391000142</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>FERNANDO PATARA LTDA</t>
         </is>
       </c>
     </row>

--- a/BANCOCNPJ.xlsx
+++ b/BANCOCNPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1632"/>
+  <dimension ref="A1:B1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16726,10 +16726,8 @@
       </c>
     </row>
     <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>22925418000142</t>
-        </is>
+      <c r="A1630" t="n">
+        <v>22925418000142</v>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
@@ -16738,10 +16736,8 @@
       </c>
     </row>
     <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>46317466000205</t>
-        </is>
+      <c r="A1631" t="n">
+        <v>46317466000205</v>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
@@ -16750,14 +16746,996 @@
       </c>
     </row>
     <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>55788391000142</t>
-        </is>
+      <c r="A1632" t="n">
+        <v>55788391000142</v>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
           <t>FERNANDO PATARA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>4617659000142</v>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STARHOUSE MEGA STORE LTDA                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>43283811006948</v>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KALUNGA SA                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>35481784000100</v>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FELIPE BARBOSA DOS SANTOS                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>11349408000602</v>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STI COMPUTADORES INDUSTRIA E COMRC                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>5046455000161</v>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANSERVE COMERCIO DE BEBIDAS E ALIME               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>13427135000180</v>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOVA OPCAO COMERCIO DE EQUIPAMENTOS                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>46732013000156</v>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VEXLO CONFECCAO LTDA - VESTILO                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>10284246000196</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIFATO PAPELARIA LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>8160945000182</v>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMPORIO PROJETISTA COMERCIO ELETRON               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>54047791000134</v>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANA JULIA REBELLO CHIORA               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>21136186000180</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G L DOS SANTOS - ELETRONICOS                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>23027655000159</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEGATUMII COMERCIO IMPORTACAO E EX               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>39466699000115</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESHOP IMPORTACAO E COMERCIO DE ELET               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>7621197000125</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DVIE SOLUCOES CORPORATIVAS EIRELI                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>73201246000529</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMERCIO DE TINTAS PIG LTDA                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1335084000187</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOP COMERCIO E DISTR DE MATERIAIS P               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>22675330000110</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALDEVANDO RODEGHEL - EPP                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>76760776000171</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEGAPE QUIMICA LTDA                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>30455961000151</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CEREALISTA EXPRESS LTDA                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>45720151000152</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALCIDIS FRANQUILINO FILHO                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>38359834000160</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BOREAL VENDAS ON LINE                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>26154969000100</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S7 COMERCIO E TECNOLOGIA LTDA ME                  </t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>32156471000180</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FPSILVA SHOP  COMERCIO DE VARIEDADE               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>55010060000187</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTESANA DIVISORIAS E FORROS LTDA                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1355480000257</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNINJET INDUSTRIA E COMERCIO DE PLA                           </t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>31098155000489</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FNS COMERCIO E IMPORTACAO LTDA                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>32473620000134</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAMON AP TRINDADE DE ALMEIDA COM I               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>22525466000143</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERNANDES &amp; FERNANDES COMERCIO DE F               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>8883629000139</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DELLAR COMERCIO DE MOVEIS PLANEJADO               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>14055516000571</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOBLY COMERCIO VAREJISTA LTDA                                </t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>13203356000174</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OIAPOK IND COM DE MOVEIS  PROD ERGO                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>55727934000111</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>FERNANDO GUEDES TARDELI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>40744066000100</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>M M SMEILI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>56063984000104</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>ESCALA E CONCEITO SERVICOS DE ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>56082728000164</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>DANIELA CAPUANO ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>55991464000107</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>BARO ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>55997262000164</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>ENGEHAB ENGENHARIA E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>56022083000174</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>MARHAS ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>22626496000146</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>DAIENE AGUIAR COELHO CONSTRUCOES E REFORMAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>48884769000146</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>FG SERVITEC SERVICOS DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>36132069000116</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>WALQUIRIA BORGES ORNELAS 29721721832</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>22752238000106</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>PTV DO BRASIL-IMPORTACAO, LICENCAS E SUPORTE DE SOFTWARE LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>43052497000102</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>DEPARTAMENTO DE ESTRADAS DE RODAGEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>55695018000147</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>MARISA CAMPOS GUIDINI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>24572006000100</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>GRAN HOTEL NINA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>14118789000194</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>ESCOLA DE FORMACAO DE BOMBEIROS COSTA MOTA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>34776508000106</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>RODRIGO CRISTIANO FERNANDES BROCHETTO 27224943886</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>45987005015896</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>COMERCIAL AUTOMOTIVA S.A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>21521671000178</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>LIBRAMAX IMPORTACAO E COMERCIO DE PECAS PARA BALANCAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>29455761000110</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>29.455.761 THIAGO GALOFARO DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>10282999000162</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>CARMONA ENGENHARIA RIO PRETO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>44933184000118</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>N.SFG ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>4812835000105</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>P &amp; B HOTELARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>49472593000188</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>49.472.593 GEISON WESLEY DA SILVA DUARTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>28642588000104</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>AUGUSTA PRINT COPIADORA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>54907377000158</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>MEDICINA DO TRABALHO SQV LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>33093470000104</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>NILSON A. DO NASCIMENTO - ARQUITETURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>56544727000194</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>HRM ARQUITETURA EM HARMONIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>50104708000160</v>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>DANTE BRANDINO DI PIAZZA ENGENHARIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>44040097000131</v>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>SENIUM ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>33872877000121</v>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>Lucas da Costa Lino Ferreira Apoio Administrativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>19756149000123</v>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>M2E ENGENHARIA DE AR CONDICIONADO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>10778216000136</v>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>LF AMBIENTAL - CONSULTORIA - PROJETOS E SERVICOS AMBIENTAIS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>51321531000117</v>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>CRISTIANE DE CARVALHO FERNANDEZ SONCIN LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>45825621000142</v>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>JONATHAN GOMES DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>56195727000126</v>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>LCMIQUI CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>55782831000154</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>LUPINO AMBIENTAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>31381217000112</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>ANDERSON OPSFELDER 26755833835</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>10880262000141</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>AD SERVICE ASSESSORIA EM NORMAS OCUPACIONAIS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>50715609000115</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>DENIS GUIMARAES DE ALMEIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>48822020000174</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>CONSORCIO FISCALIZACAO TERMINAIS SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>55593762000130</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>GHM INGENIUM CONSULTORIA E ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>01850269000634</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>RIOS PARK ESTACIONAMENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>43093154000188</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>ELISA MARIA VILELA 47035767835</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>45132646000160</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>MARCELO LOPES DOS SANTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>37457753000130</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>ANA CAROLINA MONTENEGRO MORAIS COUCEIRO ORGANIZACAO DE EVENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>56058097000148</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>THAYS DE SOUZA OLIVEIRA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>56038637000121</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>OPTIMUM CONSULTING CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>38026443000124</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>FERNANDA BALDANZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>55323047000188</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>JORGE COUTO MAFRA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>55332004000169</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>ARQUITETURA E URBANISMO PODZWATO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>55979829000170</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>JRC PAISAGISMO E ARQUITETURA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>55429191000101</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>V C MENEZES ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>55307294000190</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>55.307.294 VAMBERTO BARRETO SANTOS JUNIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>27390870000170</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>BAL ASSESSORIA EMPRESARIAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>55298774000132</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>55.298.774 ANA KARINA SOUSA SANTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>55592816000143</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>SANDRA REGINA DA COSTA RODRIGUES ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>40138733000101</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>CONSORCIO SANEAR LITORAL NORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>55665302000170</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>SATUS SOLUCOES EM ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>55385358000171</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>AMANDA SOARES DA SILVA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>55272060000155</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>EVELYM MELO SERVICOS DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>41606917000111</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>CUBO GEOTECNIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>26478473000192</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>GEO CORING SERVICOS DE SONDAGENS E ENSAIOS GEOTECNICOS LTDA</t>
         </is>
       </c>
     </row>

--- a/BANCOCNPJ.xlsx
+++ b/BANCOCNPJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1725"/>
+  <dimension ref="A1:B1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20812,324 +20812,1320 @@
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>55782831000154</t>
+          <t>65555146000220</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>LUPINO AMBIENTAL LTDA</t>
+          <t xml:space="preserve">BALASKA EQUIPE INDUSTRIA E COMERCIO               </t>
         </is>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>31381217000112</t>
+          <t>09036323000100</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>ANDERSON OPSFELDER 26755833835</t>
+          <t xml:space="preserve">AUTO VIDROSHOP LTDA                                           </t>
         </is>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>10880262000141</t>
+          <t>43283811008568</t>
         </is>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>AD SERVICE ASSESSORIA EM NORMAS OCUPACIONAIS LTDA</t>
+          <t xml:space="preserve">KALUNGA SA                                                    </t>
         </is>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" t="inlineStr">
         <is>
-          <t>50715609000115</t>
+          <t>11406570000445</t>
         </is>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>DENIS GUIMARAES DE ALMEIDA</t>
+          <t xml:space="preserve">SUMMIT HOTELARIA LTDA                                         </t>
         </is>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" t="inlineStr">
         <is>
-          <t>48822020000174</t>
+          <t>11664172000186</t>
         </is>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>CONSORCIO FISCALIZACAO TERMINAIS SP</t>
+          <t xml:space="preserve">KAREN MIYAZAKI DE ANDRADE MATERIAIS                           </t>
         </is>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" t="inlineStr">
         <is>
-          <t>55593762000130</t>
+          <t>29048542000116</t>
         </is>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>GHM INGENIUM CONSULTORIA E ENGENHARIA LTDA</t>
+          <t xml:space="preserve">KIBUNITINHO - LEMBRANCINHAS E PERSO                           </t>
         </is>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" t="inlineStr">
         <is>
-          <t>01850269000634</t>
+          <t>37802034000100</t>
         </is>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>RIOS PARK ESTACIONAMENTOS LTDA</t>
+          <t xml:space="preserve">COMERCIAL REI DO TNT LTDA                                     </t>
         </is>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="inlineStr">
         <is>
-          <t>43093154000188</t>
+          <t>23392370000117</t>
         </is>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>ELISA MARIA VILELA 47035767835</t>
+          <t xml:space="preserve">ELETRICA TENSAO LTDA                                          </t>
         </is>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="inlineStr">
         <is>
-          <t>45132646000160</t>
+          <t>45321509000174</t>
         </is>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>MARCELO LOPES DOS SANTOS</t>
+          <t xml:space="preserve">AROMA CULINARIA GH LTDA                                       </t>
         </is>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="inlineStr">
         <is>
-          <t>37457753000130</t>
+          <t>25108146000186</t>
         </is>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>ANA CAROLINA MONTENEGRO MORAIS COUCEIRO ORGANIZACAO DE EVENTOS LTDA</t>
+          <t xml:space="preserve">MECANICA CARDOZO RIO PRETO LTDA                               </t>
         </is>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" t="inlineStr">
         <is>
-          <t>56058097000148</t>
+          <t>51013899000118</t>
         </is>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>THAYS DE SOUZA OLIVEIRA LTDA.</t>
+          <t xml:space="preserve">RESTAURANTE E LANCHONETE PONTOCHIQ                            </t>
         </is>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="inlineStr">
         <is>
-          <t>56038637000121</t>
+          <t>49886047000193</t>
         </is>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>OPTIMUM CONSULTING CONSULTORIA LTDA</t>
+          <t xml:space="preserve">HOTEL BEIRA RIO LTDA                                         </t>
         </is>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="inlineStr">
         <is>
-          <t>38026443000124</t>
+          <t>03584154000166</t>
         </is>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>FERNANDA BALDANZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+          <t xml:space="preserve">JEANETE ALVES DE LIMA OLIVEIRA ITAB                           </t>
         </is>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>55323047000188</t>
+          <t>52979988000186</t>
         </is>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>JORGE COUTO MAFRA LTDA</t>
+          <t xml:space="preserve">W V CINE FOTOS LTDA                                          </t>
         </is>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="inlineStr">
         <is>
-          <t>55332004000169</t>
+          <t>31021498000100</t>
         </is>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>ARQUITETURA E URBANISMO PODZWATO LTDA</t>
+          <t xml:space="preserve">RESTAURANTE SOUZA LTDA                                        </t>
         </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>55979829000170</t>
+          <t>06957683000156</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>JRC PAISAGISMO E ARQUITETURA LTDA.</t>
+          <t xml:space="preserve">DIBRAPO COMERCIO E IMPORTACAO LTDA                            </t>
         </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>55429191000101</t>
+          <t>06989805000196</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>V C MENEZES ARQUITETURA LTDA</t>
+          <t xml:space="preserve">ELAINE VIEIRA DO NASCIMENTO GUERRA                  </t>
         </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="inlineStr">
         <is>
-          <t>55307294000190</t>
+          <t>21713088000169</t>
         </is>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>55.307.294 VAMBERTO BARRETO SANTOS JUNIOR</t>
+          <t xml:space="preserve">AKI ELETRO IMPORTADORA E EXPORTADOR                           </t>
         </is>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" t="inlineStr">
         <is>
-          <t>27390870000170</t>
+          <t>77589976000176</t>
         </is>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>BAL ASSESSORIA EMPRESARIAL LTDA</t>
+          <t xml:space="preserve">ELETRO SOUZA - UTILIDADES DOMESTICA                           </t>
         </is>
       </c>
     </row>
     <row r="1718">
       <c r="A1718" t="inlineStr">
         <is>
-          <t>55298774000132</t>
+          <t>23368883000192</t>
         </is>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>55.298.774 ANA KARINA SOUSA SANTOS</t>
+          <t xml:space="preserve">COMERCIAL VILAAGROCENTER LTDA                        </t>
         </is>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>55592816000143</t>
+          <t>52954337000131</t>
         </is>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>SANDRA REGINA DA COSTA RODRIGUES ENGENHARIA LTDA</t>
+          <t xml:space="preserve">BROT PAO PANIFICADORA E CONFEITARIA                 </t>
         </is>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>40138733000101</t>
+          <t>17589708000122</t>
         </is>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>CONSORCIO SANEAR LITORAL NORTE</t>
+          <t xml:space="preserve">RBRVIDROS PRODUTOS PARA LABORATORIO               </t>
         </is>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" t="inlineStr">
         <is>
-          <t>55665302000170</t>
+          <t>77765840000170</t>
         </is>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>SATUS SOLUCOES EM ENGENHARIA LTDA</t>
+          <t xml:space="preserve">CONTABILISTA SUPRIMENTOS PARA ESCRI                 </t>
         </is>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" t="inlineStr">
         <is>
-          <t>55385358000171</t>
+          <t>43283811016587</t>
         </is>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>AMANDA SOARES DA SILVA ENGENHARIA LTDA</t>
+          <t xml:space="preserve">KALUNGA SA                                                    </t>
         </is>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" t="inlineStr">
         <is>
-          <t>55272060000155</t>
+          <t>08581947000145</t>
         </is>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>EVELYM MELO SERVICOS DE ENGENHARIA LTDA</t>
+          <t xml:space="preserve">ESCARLETE PRODUTOS DE LIMPEZA LTDA                            </t>
         </is>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="inlineStr">
         <is>
-          <t>41606917000111</t>
+          <t>62253430000172</t>
         </is>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>CUBO GEOTECNIA LTDA</t>
+          <t xml:space="preserve">CHURRASCARIA ESPETO DE OURO SOROCAB                           </t>
         </is>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
+          <t>61285870000149</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERRARI MATERIAIS ELETRICOS SOROCAB               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>41129047000137</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSCOMMERCE VENDAS NA INTERNET LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>40842046000172</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARCIO GONCALVES DE ARAUJO                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>54845294000181</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JBL COMERCIAL LTDA                                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>27249548000126</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIX COMERCIO DE VARIEDADES LTDA                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>05649289000279</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMPORIO ANDALUZIA LTDA                            </t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>24170335000116</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>24.170.335 FELIPE RAMOS KOBAYASHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>46527533000127</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>SS14 LIMPEZAS E MANUTENCAO TECNICA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>19797128000156</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>SUTIL GESSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>30562139000190</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>AMC TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>68897164000105</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>C &amp; M ENGENHARIA E AVALIACAO LIMITADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>61882395000198</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>OBRA SOCIAL DOM BOSCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>28263361000140</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>GG PROJECT INDUSTRIA E COMERCIO DE PLANTAS E PAISAGISMO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>46381521001532</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>ESTACIONAMENTOS TREVO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>35664436000160</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>JOAO LUIZ RIBEIRO GONSALO 02550259807</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>05212175000186</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>POUSADA CASA DA PRAIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>51587513000181</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>CTHUT TREINAMENTOS E APOIO ADMINISTRATIVO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>09119094000197</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>CARLOS SHIGUERU TOYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>38333535000157</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>MARCELO CARVALHO CRUZ SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>48881084000146</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>SOLVE ENGENHARIA E TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>45785423000100</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>INNOVA PROJETOS E CONSULTORIA DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>10661584000108</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>ASO - ASSESSORIA EM SAUDE OCUPACIONAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>57876365000100</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>A.F.A PROJETOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>44231754000128</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>DM LIPORACCI ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>35174251000177</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>POUSADA SHANGRILA RP LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>43862416000121</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>PANORAMA PARK HOTEL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>35524427000173</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>HOTEL PEREGRINOS LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>66937228000110</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>OESTE TURISMO E HOTELARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>57131687000111</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>57.131.687 MAYARA DOS SANTOS OLIVEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>56419704000158</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>CORDONI ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>52718858000190</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>52.718.858 CAMILA MIANO SIQUEIRA CORTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>49210623000188</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>49.210.623 GEDIEL FERREIRA MENDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>45965626000170</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>A. MAIA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>30813396000157</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>30.813.396 ANDREA FOGASSA DA SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>57822360000196</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>57.822.360 KAREN HOSOMI TERAMAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>46460256000182</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>GISELLE BLANCO DE JESUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>57587283000137</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>EVOLUTEC ENGENHARIA E NEGOCIOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>03738315000129</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>DEDETIZADORA, DESENTUPIDORA E COMERCIO LOREMI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>00938634000190</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>MENDONCA CRUZ ADVOGADOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>01227689000154</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>METRICA TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>52425228000127</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>52.425.228 ADRIANO PEREIRA DA ROCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>20005076000117</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>PATRICIA A. A. COUTINHO SERVICOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>57363275000107</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>FLORENTEC ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>33974778000150</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>JULIANA TREVIZAN SANDRINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>57261597000145</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>L. L. M. SILVA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>37230001000132</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>MARILZA APARECIDA FERRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>04376891000136</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>LUCRYSTEL TELECOMUNICACOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>51743729000199</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>MARIA LUISA PELEGRIN LAZARINI LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>51731329000163</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>F PULVIRENTI SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>57164257000104</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>ALISSON ALBERTO DE LIMA MEDEIROS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>31381217000112</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>ANDERSON OPSFELDER 26755833835</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>06231335000105</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>CIBERMETRICA EQUIPAMENTOS E SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>50715609000115</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>DENIS GUIMARAES DE ALMEIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>55593762000130</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>GHM INGENIUM CONSULTORIA E ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>57215091000108</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>57.215.091 MATHEUS HIDEKI LOPES KONNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>43093154000188</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>ELISA MARIA VILELA 47035767835</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>10537193000178</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>DESKGRAPHICS REALIZE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>56058097000148</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>THAYS DE SOUZA OLIVEIRA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>38026443000124</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>FERNANDA BALDANZA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>57466158000179</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>CLAUDIO D ELIA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>55429191000101</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>V C MENEZES ARQUITETURA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>55332004000169</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>ARQUITETURA E URBANISMO PODZWATO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>55298774000132</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>55.298.774 ANA KARINA SOUSA SANTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>37457753000130</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>ANA CAROLINA MONTENEGRO MORAIS COUCEIRO ORGANIZACAO DE EVENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>55979829000170</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>JRC PAISAGISMO E ARQUITETURA LTDA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>56038637000121</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>OPTIMUM CONSULTING CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>55323047000188</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>JORGE COUTO MAFRA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>55307294000190</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>55.307.294 VAMBERTO BARRETO SANTOS JUNIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>27390870000170</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>BAL ASSESSORIA EMPRESARIAL LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>55592816000143</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>SANDRA REGINA DA COSTA RODRIGUES ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>43491525000180</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>MG CONSULTORIA E NEGOCIOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>55272060000155</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>EVELYM MELO SERVICOS DE ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>55385358000171</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>AMANDA SOARES DA SILVA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>57131991000169</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>ALECSANDER DE JESUS SILVA JUNIOR LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>30157315000108</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>SERCS ENGENHARIA E SERVICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>37073255000194</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>CARLIL GIBRAN FONSECA DE MACEDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>12641469000270</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>A. L. PEREIRA TRANSPORTE E ESTACIONAMENTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>04231895000126</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>ALTA RESOLUCAO GEOFISICA E GEOLOGIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
           <t>26478473000192</t>
         </is>
       </c>
-      <c r="B1725" t="inlineStr">
+      <c r="B1803" t="inlineStr">
         <is>
           <t>GEO CORING SERVICOS DE SONDAGENS E ENSAIOS GEOTECNICOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>13195825000150</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>BARBOSA, RAIMUNDO, GONTIJO E CAMARA - ADVOGADOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>24535118000182</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>M&amp;M PROJETOS E CONSULTORIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>53031766000108</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>MIDORI COMERCIO DE MOVEIS PLANEJADOS E DECORACAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>34465037000107</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>J&amp;M CONTROLE TECNOLOGICO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>57447372000188</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>DENILSON ALVES DE SOUZA LTDA</t>
         </is>
       </c>
     </row>
